--- a/Table/Table_xls/F服务器等级持续时间表.xlsx
+++ b/Table/Table_xls/F服务器等级持续时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 单位为“天”</t>
         </r>
       </text>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>ID</t>
   </si>
@@ -58,12 +59,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -78,7 +79,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,22 +124,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,64 +191,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -235,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,36 +455,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,15 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,153 +493,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,12 +728,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1064,19 +1055,20 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
@@ -1101,17 +1093,73 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>89</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>129</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>155</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>999</v>
       </c>
-      <c r="D2">
+      <c r="D6">
         <v>999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
   <legacyDrawing r:id="rId2"/>
@@ -1119,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1129,14 +1177,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1146,7 +1194,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>

--- a/Table/Table_xls/F服务器等级持续时间表.xlsx
+++ b/Table/Table_xls/F服务器等级持续时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 单位为“天”</t>
         </r>
       </text>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -59,12 +58,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -85,9 +84,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +176,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -117,109 +200,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -231,6 +235,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -243,175 +313,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,7 +447,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -475,6 +484,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,173 +526,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,6 +733,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1055,20 +1064,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
@@ -1093,68 +1101,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>109</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>129</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>139</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>155</v>
-      </c>
-      <c r="C6">
-        <v>999</v>
-      </c>
-      <c r="D6">
         <v>999</v>
       </c>
     </row>
@@ -1167,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1175,7 +1127,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1184,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1192,7 +1144,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
